--- a/case4.xlsx
+++ b/case4.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26327"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\JavaProjects\configuration and scheduling of MRFL\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\JavaProjects\scheduling_of_rfl\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{20103D7F-1B0B-484E-BD65-6A1F26984FCC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{025FFD1F-3938-4EFD-A3CF-A3A8E45A0BB2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1008" yWindow="-108" windowWidth="22140" windowHeight="13176" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4152" yWindow="3036" windowWidth="16440" windowHeight="9420" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="process" sheetId="1" r:id="rId1"/>
@@ -7911,8 +7911,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{017BCED2-D5B8-484B-8E96-FEE5C72F2B8F}">
   <dimension ref="A1:C61"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A61" workbookViewId="0">
-      <selection activeCell="A62" sqref="A62:F84"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -7940,7 +7940,7 @@
         <v>66</v>
       </c>
       <c r="C2">
-        <v>15</v>
+        <v>10</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
@@ -7951,7 +7951,7 @@
         <v>66</v>
       </c>
       <c r="C3">
-        <v>15</v>
+        <v>10</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
@@ -7962,7 +7962,7 @@
         <v>60</v>
       </c>
       <c r="C4">
-        <v>15</v>
+        <v>10</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
@@ -7973,7 +7973,7 @@
         <v>66</v>
       </c>
       <c r="C5">
-        <v>15</v>
+        <v>10</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
@@ -7984,7 +7984,7 @@
         <v>60</v>
       </c>
       <c r="C6">
-        <v>15</v>
+        <v>10</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
@@ -7995,7 +7995,7 @@
         <v>60</v>
       </c>
       <c r="C7">
-        <v>15</v>
+        <v>10</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
@@ -8006,7 +8006,7 @@
         <v>60</v>
       </c>
       <c r="C8">
-        <v>15</v>
+        <v>10</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
@@ -8017,7 +8017,7 @@
         <v>60</v>
       </c>
       <c r="C9">
-        <v>15</v>
+        <v>10</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
@@ -8127,7 +8127,7 @@
         <v>30</v>
       </c>
       <c r="C19">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
@@ -8138,7 +8138,7 @@
         <v>30</v>
       </c>
       <c r="C20">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
@@ -8149,7 +8149,7 @@
         <v>30</v>
       </c>
       <c r="C21">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
@@ -8160,7 +8160,7 @@
         <v>30</v>
       </c>
       <c r="C22">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
@@ -8171,7 +8171,7 @@
         <v>30</v>
       </c>
       <c r="C23">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
@@ -8182,7 +8182,7 @@
         <v>30</v>
       </c>
       <c r="C24">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
@@ -8193,7 +8193,7 @@
         <v>30</v>
       </c>
       <c r="C25">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.25">
@@ -8204,7 +8204,7 @@
         <v>30</v>
       </c>
       <c r="C26">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.25">
@@ -8215,7 +8215,7 @@
         <v>30</v>
       </c>
       <c r="C27">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.25">
@@ -8226,7 +8226,7 @@
         <v>30</v>
       </c>
       <c r="C28">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.25">
@@ -8237,7 +8237,7 @@
         <v>30</v>
       </c>
       <c r="C29">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.25">
@@ -8248,7 +8248,7 @@
         <v>30</v>
       </c>
       <c r="C30">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.25">
@@ -8259,7 +8259,7 @@
         <v>30</v>
       </c>
       <c r="C31">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.25">
@@ -8270,7 +8270,7 @@
         <v>30</v>
       </c>
       <c r="C32">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.25">
@@ -8281,7 +8281,7 @@
         <v>30</v>
       </c>
       <c r="C33">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="34" spans="1:3" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
@@ -8292,7 +8292,7 @@
         <v>30</v>
       </c>
       <c r="C34">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.25">
@@ -8303,7 +8303,7 @@
         <v>45</v>
       </c>
       <c r="C35">
-        <v>6</v>
+        <v>10</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.25">
@@ -8314,7 +8314,7 @@
         <v>45</v>
       </c>
       <c r="C36">
-        <v>6</v>
+        <v>10</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.25">
@@ -8325,7 +8325,7 @@
         <v>45</v>
       </c>
       <c r="C37">
-        <v>6</v>
+        <v>10</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.25">
@@ -8336,7 +8336,7 @@
         <v>45</v>
       </c>
       <c r="C38">
-        <v>6</v>
+        <v>10</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.25">
@@ -8347,7 +8347,7 @@
         <v>45</v>
       </c>
       <c r="C39">
-        <v>6</v>
+        <v>10</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.25">
@@ -8358,7 +8358,7 @@
         <v>45</v>
       </c>
       <c r="C40">
-        <v>6</v>
+        <v>10</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.25">
@@ -8369,7 +8369,7 @@
         <v>45</v>
       </c>
       <c r="C41">
-        <v>6</v>
+        <v>10</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.25">
@@ -8380,7 +8380,7 @@
         <v>45</v>
       </c>
       <c r="C42">
-        <v>6</v>
+        <v>10</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.25">
@@ -8391,7 +8391,7 @@
         <v>45</v>
       </c>
       <c r="C43">
-        <v>6</v>
+        <v>10</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.25">
@@ -8402,7 +8402,7 @@
         <v>45</v>
       </c>
       <c r="C44">
-        <v>6</v>
+        <v>10</v>
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.25">
@@ -8413,7 +8413,7 @@
         <v>45</v>
       </c>
       <c r="C45">
-        <v>6</v>
+        <v>10</v>
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.25">
@@ -8424,7 +8424,7 @@
         <v>45</v>
       </c>
       <c r="C46">
-        <v>6</v>
+        <v>10</v>
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.25">
@@ -8435,7 +8435,7 @@
         <v>45</v>
       </c>
       <c r="C47">
-        <v>6</v>
+        <v>10</v>
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.25">
@@ -8446,7 +8446,7 @@
         <v>45</v>
       </c>
       <c r="C48">
-        <v>6</v>
+        <v>10</v>
       </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.25">
@@ -8457,7 +8457,7 @@
         <v>45</v>
       </c>
       <c r="C49">
-        <v>6</v>
+        <v>10</v>
       </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.25">
@@ -8589,7 +8589,7 @@
         <v>20</v>
       </c>
       <c r="C61">
-        <v>15</v>
+        <v>10</v>
       </c>
     </row>
   </sheetData>
